--- a/Hardware/Basic/Bottom/Smartwatch-BASIC-BOTTOM_BOM.xlsx
+++ b/Hardware/Basic/Bottom/Smartwatch-BASIC-BOTTOM_BOM.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orlandohoilett/Documents/Milestones/Git/Tasks-Tutorials-Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruhaan Joshi\Documents\Smartwatch\Hardware\Basic\Bottom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F0319-899B-F545-ABC0-B856698FB7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486280CC-905C-4725-8C3F-7F52EB2A2613}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="14400" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -225,211 +231,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4414EC97-401B-5C4D-BF38-03085F1F044A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{42ADFC76-2A16-3F4B-9937-20E1DF8DC9D9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{92578C3E-17AC-CF40-B33B-C67DBD723ACA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{B87F5F84-059E-824D-B1C3-C6D21A6C0FC3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{8D3ED184-945A-F444-9885-2E4FC0FBB6A7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{7F187FCD-1E21-9644-AE5D-0FA5E52F65FA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="139">
   <si>
     <t>BOM #</t>
   </si>
@@ -470,18 +277,12 @@
     <t>SMD</t>
   </si>
   <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Price per unit</t>
   </si>
   <si>
-    <t>10k resistor</t>
-  </si>
-  <si>
     <t>0603</t>
   </si>
   <si>
@@ -494,15 +295,6 @@
     <t>1uF capacitor</t>
   </si>
   <si>
-    <t>LM358</t>
-  </si>
-  <si>
-    <t>Photoresistor</t>
-  </si>
-  <si>
-    <t>9V Battery Connector</t>
-  </si>
-  <si>
     <t>1µF ±10% 25V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
   </si>
   <si>
@@ -515,87 +307,15 @@
     <t>Per 100</t>
   </si>
   <si>
-    <t>White  LED Indication - Discrete 2.9V Radial</t>
-  </si>
-  <si>
     <t>THT</t>
   </si>
   <si>
-    <t>Radial</t>
-  </si>
-  <si>
-    <t>American Bright Optoelectronics Corporation</t>
-  </si>
-  <si>
-    <t>BL-BZX3V4V-1-B02</t>
-  </si>
-  <si>
-    <t>BL-BZX3V4V-1-B02-ND</t>
-  </si>
-  <si>
-    <t>White LED</t>
-  </si>
-  <si>
-    <t>Battery Connector, Snap 9V 1 Cell Wire Leads - 4" (101.6mm)</t>
-  </si>
-  <si>
-    <t>Keystone Electronics</t>
-  </si>
-  <si>
-    <t>81-4</t>
-  </si>
-  <si>
-    <t>36-81-4-ND</t>
-  </si>
-  <si>
-    <t>9V</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>General Purpose Amplifier 2 Circuit  8-SOIC</t>
-  </si>
-  <si>
-    <t>8-SOIC</t>
-  </si>
-  <si>
-    <t>LM358DR</t>
-  </si>
-  <si>
-    <t>296-1014-1-ND</t>
-  </si>
-  <si>
-    <t>OP1</t>
-  </si>
-  <si>
     <t>Total (in Bulk)</t>
   </si>
   <si>
-    <t>CDS Cell 520nm 27 ~ 60kOhms @ 10 lux</t>
-  </si>
-  <si>
-    <t>Photo</t>
-  </si>
-  <si>
-    <t>Advanced Photonix</t>
-  </si>
-  <si>
-    <t>PDV-P8104</t>
-  </si>
-  <si>
-    <t>PDV-P8104-ND</t>
-  </si>
-  <si>
     <t>10 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R1,R2,R3</t>
-  </si>
-  <si>
     <t>RMCF0603FT10K0</t>
   </si>
   <si>
@@ -603,6 +323,336 @@
   </si>
   <si>
     <t>Design Name -- Revision Code / Designer or Organization Name</t>
+  </si>
+  <si>
+    <t>DigiKey</t>
+  </si>
+  <si>
+    <t>LSM6DS3 castellated breakout</t>
+  </si>
+  <si>
+    <t>Microchip Technology</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>MCP6001</t>
+  </si>
+  <si>
+    <t>General Purpose Amplifier 1 Circuit Rail-to-Rail SOT-23-5</t>
+  </si>
+  <si>
+    <t>MCP6001T-E/OTCT-ND</t>
+  </si>
+  <si>
+    <t>Op Amp - MCP6004</t>
+  </si>
+  <si>
+    <t>General Purpose Amplifier 4 Circuit Rail-to-Rail 14-SOIC</t>
+  </si>
+  <si>
+    <t>14-SOIC</t>
+  </si>
+  <si>
+    <t>MCP6004T-I/SL</t>
+  </si>
+  <si>
+    <t>MCP6004T-I/SLCT-ND</t>
+  </si>
+  <si>
+    <t>TIA</t>
+  </si>
+  <si>
+    <t>MCP6001T-I/OT</t>
+  </si>
+  <si>
+    <t>MCP6001T-I/OTCT-ND</t>
+  </si>
+  <si>
+    <t>NXP USA Inc.</t>
+  </si>
+  <si>
+    <t>AD5242</t>
+  </si>
+  <si>
+    <t>Digital Potentiometer 1M Ohm 2 Circuit 256 Taps I²C Interface 16-SOIC</t>
+  </si>
+  <si>
+    <t>16-SOIC</t>
+  </si>
+  <si>
+    <t>Analog Devices Inc.</t>
+  </si>
+  <si>
+    <t>AD5242BRZ1M</t>
+  </si>
+  <si>
+    <t>AD5242BRZ1M-ND</t>
+  </si>
+  <si>
+    <t>PCF8523</t>
+  </si>
+  <si>
+    <t>Real Time Clock (RTC) IC Clock/Calendar I²C, 2-Wire Serial 8-SOIC (0.154", 3.90mm Width)</t>
+  </si>
+  <si>
+    <t>8-SO</t>
+  </si>
+  <si>
+    <t>PCF8523T/1,118</t>
+  </si>
+  <si>
+    <t>568-5306-1-ND</t>
+  </si>
+  <si>
+    <t>NPN-Generic</t>
+  </si>
+  <si>
+    <t>Bipolar (BJT) Transistor NPN 40V 600mA 300MHz 250mW Surface Mount TO-236AB</t>
+  </si>
+  <si>
+    <t>TO-236AB</t>
+  </si>
+  <si>
+    <t>Nexperia USA Inc.</t>
+  </si>
+  <si>
+    <t>PMBT2222A,215</t>
+  </si>
+  <si>
+    <t>1727-2956-1-ND</t>
+  </si>
+  <si>
+    <t>NFET</t>
+  </si>
+  <si>
+    <t>N-Channel 30V 500mA (Ta) 690mW (Ta) Surface Mount SOT-23-3 (TO-236)</t>
+  </si>
+  <si>
+    <t>SOT23-3</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>NTR4003NT3G</t>
+  </si>
+  <si>
+    <t>NTR4003NT3GOSCT-ND</t>
+  </si>
+  <si>
+    <t>CRYSTALECS-.327-12.5-12-C-TR (CRYSTAL) (32.7680kHz)</t>
+  </si>
+  <si>
+    <t>32.768kHz ±10ppm Crystal 12.5pF 90 kOhms 2-SMD, No Lead</t>
+  </si>
+  <si>
+    <t>2-SMD, No Lead</t>
+  </si>
+  <si>
+    <t>ECS Inc.</t>
+  </si>
+  <si>
+    <t>ECS-.327-12.5-12-C-TR</t>
+  </si>
+  <si>
+    <t>XC2288CT-ND</t>
+  </si>
+  <si>
+    <t>Sullins Connector Solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONN_07-1.27MM </t>
+  </si>
+  <si>
+    <t>50 Positions Header Connector 0.050" (1.27mm) Through Hole Gold</t>
+  </si>
+  <si>
+    <t>GRPB501VWVN-RC</t>
+  </si>
+  <si>
+    <t>S9014E-50-ND</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>10k Resistor</t>
+  </si>
+  <si>
+    <t>220k resistor</t>
+  </si>
+  <si>
+    <t>220 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FT220K</t>
+  </si>
+  <si>
+    <t>RMCF0603FT220KCT-ND</t>
+  </si>
+  <si>
+    <t>1M Resistor</t>
+  </si>
+  <si>
+    <t>1 MOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FT1M00</t>
+  </si>
+  <si>
+    <t>RMCF0603FT1M00CT-ND</t>
+  </si>
+  <si>
+    <t>10M Resistor</t>
+  </si>
+  <si>
+    <t>10 MOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FT10M0</t>
+  </si>
+  <si>
+    <t>RMCF0603FT10M0CT-ND</t>
+  </si>
+  <si>
+    <t>Walsin Technology Corporation</t>
+  </si>
+  <si>
+    <t>2.2n Capacitor</t>
+  </si>
+  <si>
+    <t>2200pF ±10% 50V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>0603B222K500CT</t>
+  </si>
+  <si>
+    <t>1292-1412-1-ND</t>
+  </si>
+  <si>
+    <t>22n capacitor</t>
+  </si>
+  <si>
+    <t>0.022µF ±10% 50V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>CL10B223KB8NNNC</t>
+  </si>
+  <si>
+    <t>1276-1104-1-ND</t>
+  </si>
+  <si>
+    <t>100 nF Capacitor</t>
+  </si>
+  <si>
+    <t>0.1µF ±5% 16V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R7BB104</t>
+  </si>
+  <si>
+    <t>311-1776-1-ND</t>
+  </si>
+  <si>
+    <t>2.2u capacitor</t>
+  </si>
+  <si>
+    <t>2.2µF ±10% 16V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>CL10A225KO8NNNC</t>
+  </si>
+  <si>
+    <t>1276-1040-1-ND</t>
+  </si>
+  <si>
+    <t>22u capacitor</t>
+  </si>
+  <si>
+    <t>22µF ±20% 10V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>CL10A226MP8NUNE</t>
+  </si>
+  <si>
+    <t>1276-1274-1-ND</t>
+  </si>
+  <si>
+    <t>R1,R2,R7,R8,R14</t>
+  </si>
+  <si>
+    <t>R10,R13</t>
+  </si>
+  <si>
+    <t>R4,R12</t>
+  </si>
+  <si>
+    <t>R3,R5,R9,R11</t>
+  </si>
+  <si>
+    <t>IMU1</t>
+  </si>
+  <si>
+    <t>OP3</t>
+  </si>
+  <si>
+    <t>OP4</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>C1,C3,C4,C8,C9,C13</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C5,C6,C7</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>AD5171</t>
+  </si>
+  <si>
+    <t>Digital Potentiometer ICs IC 6-Bit OTP I2C</t>
+  </si>
+  <si>
+    <t>SOT-23-8</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>AD5171BRJZ100-R7</t>
+  </si>
+  <si>
+    <t>584-AD5171BRJZ100-R7</t>
+  </si>
+  <si>
+    <t>XTAL1</t>
+  </si>
+  <si>
+    <t>J1</t>
   </si>
 </sst>
 </file>
@@ -613,7 +663,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -684,14 +734,23 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Quattrocento Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Quattrocento Sans"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,8 +769,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -771,8 +836,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="82">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -855,8 +935,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -873,18 +954,24 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="82" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="82" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="82" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="82" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="82" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="82" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="82" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="82" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="82" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="82" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="82" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,7 +982,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="82">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -978,6 +1065,7 @@
     <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="82" xr:uid="{9C1F6F10-D8FF-46F1-BF3E-3C56C613B7D6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1314,36 +1402,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="1"/>
+    <col min="12" max="12" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="14.25">
+      <c r="A1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -1352,21 +1440,21 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1" s="6">
-        <f>SUM(M3:M77)</f>
-        <v>2.48</v>
+        <f>SUM(M3:M14)</f>
+        <v>10.728</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="O1" s="6">
-        <f>SUM(O3:O77)</f>
-        <v>1.1271</v>
+        <f>SUM(O3:O14)</f>
+        <v>0.496</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="2" customFormat="1" ht="10.5">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1398,313 +1486,1222 @@
         <v>8</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="11">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="13">
+        <f>L6*K6</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0.22</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.22</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="11">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.44</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="19">
+        <f t="shared" ref="M7:M23" si="0">L7*K7</f>
+        <v>0.44</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="11">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.24</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="19">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="11">
+        <v>24</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="13">
+        <v>3.47</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="19">
+        <f t="shared" si="0"/>
+        <v>3.47</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="11">
+        <v>25</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="13">
+        <v>1.26</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="19">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="11">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="13">
+        <v>1.05</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="19">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="11">
         <v>27</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0.27</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+      <c r="M12" s="19">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="N12" s="13">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <f>1</f>
+    <row r="13" spans="1:26">
+      <c r="A13" s="11">
+        <v>28</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="L13" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="M13" s="19">
+        <f t="shared" si="0"/>
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="17">
+        <v>56</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="19">
+        <v>3.11</v>
+      </c>
+      <c r="L14" s="15">
+        <v>1</v>
+      </c>
+      <c r="M14" s="19">
+        <f t="shared" si="0"/>
+        <v>3.11</v>
+      </c>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="11">
+        <v>69</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="13">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="L15" s="8">
+        <v>5</v>
+      </c>
+      <c r="M15" s="19">
+        <f t="shared" si="0"/>
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="11">
+        <v>71</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="13">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="L16" s="8">
+        <v>6</v>
+      </c>
+      <c r="M16" s="19">
+        <f t="shared" si="0"/>
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="11">
+        <v>73</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="13">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="L17" s="8">
+        <v>2</v>
+      </c>
+      <c r="M17" s="19">
+        <f t="shared" si="0"/>
+        <v>1.18E-2</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="11">
+        <v>74</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="13">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="L18" s="8">
+        <v>2</v>
+      </c>
+      <c r="M18" s="19">
+        <f t="shared" si="0"/>
+        <v>1.78E-2</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="11">
+        <v>81</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="13">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="L19" s="8">
+        <v>1</v>
+      </c>
+      <c r="M19" s="19">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="11">
+        <v>82</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="13">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1</v>
+      </c>
+      <c r="M20" s="19">
+        <f t="shared" si="0"/>
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="11">
+        <v>83</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="13">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="L21" s="8">
+        <v>6</v>
+      </c>
+      <c r="M21" s="19">
+        <f t="shared" si="0"/>
+        <v>0.1986</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="11">
+        <v>84</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="L3" s="11">
+      <c r="K22" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="8">
         <v>1</v>
       </c>
-      <c r="M3" s="10">
-        <f t="shared" ref="M3:M8" si="0">K3*L3</f>
-        <v>0.38</v>
-      </c>
-      <c r="N3" s="10">
-        <v>0.1391</v>
-      </c>
-      <c r="O3" s="10">
-        <f t="shared" ref="O3:O7" si="1">L3*N3</f>
-        <v>0.1391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.89</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="10">
-        <f t="shared" si="0"/>
-        <v>0.89</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0.46</v>
-      </c>
-      <c r="O4" s="10">
-        <f t="shared" si="1"/>
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L5" s="11">
-        <v>1</v>
-      </c>
-      <c r="M5" s="10">
-        <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0.3982</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="1"/>
-        <v>0.3982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0.26</v>
-      </c>
-      <c r="L6" s="11">
-        <v>1</v>
-      </c>
-      <c r="M6" s="10">
-        <f t="shared" si="0"/>
-        <v>0.26</v>
-      </c>
-      <c r="N6" s="10">
-        <v>9.0899999999999995E-2</v>
-      </c>
-      <c r="O6" s="10">
-        <f t="shared" si="1"/>
-        <v>9.0899999999999995E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L7" s="11">
-        <v>3</v>
-      </c>
-      <c r="M7" s="10">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="N7" s="10">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="1"/>
-        <v>2.0399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L8" s="11">
-        <v>1</v>
-      </c>
-      <c r="M8" s="10">
+      <c r="M22" s="19">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N22" s="13">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="O8" s="10">
-        <f>L8*N8</f>
+      <c r="O22" s="13">
         <v>1.8499999999999999E-2</v>
       </c>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="11">
+        <v>85</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="13">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="L23" s="8">
+        <v>3</v>
+      </c>
+      <c r="M23" s="19">
+        <f t="shared" si="0"/>
+        <v>9.4800000000000009E-2</v>
+      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="11">
+        <v>88</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="13">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
+      <c r="M24" s="19">
+        <f>L24*K24</f>
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="17">
+        <v>1</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="K27" s="19">
+        <v>2.68</v>
+      </c>
+      <c r="L27" s="15">
+        <v>1</v>
+      </c>
+      <c r="M27" s="19">
+        <f>L27*K27</f>
+        <v>2.68</v>
+      </c>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1713,10 +2710,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>